--- a/upload/bens_protegidos_registrados.xlsx
+++ b/upload/bens_protegidos_registrados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silviana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B52A47-F529-4845-9371-CBFD5C319EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB74C343-C2DB-4798-AA0F-DCE40777B0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="20712" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31308" yWindow="960" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15514" uniqueCount="2194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15507" uniqueCount="2193">
   <si>
     <t>municipio</t>
   </si>
@@ -6611,9 +6611,6 @@
   </si>
   <si>
     <t>Decreto nº 6409/2016</t>
-  </si>
-  <si>
-    <t>Teste</t>
   </si>
 </sst>
 </file>
@@ -7092,10 +7089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2983"/>
+  <dimension ref="A1:G2982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2970" workbookViewId="0">
-      <selection activeCell="D2987" sqref="D2987"/>
+    <sheetView tabSelected="1" topLeftCell="A2978" workbookViewId="0">
+      <selection activeCell="C2987" sqref="C2987"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66905,29 +66902,6 @@
       </c>
       <c r="G2982" s="2"/>
     </row>
-    <row r="2983" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2983" s="16" t="s">
-        <v>2193</v>
-      </c>
-      <c r="B2983" s="16" t="s">
-        <v>2193</v>
-      </c>
-      <c r="C2983" s="16" t="s">
-        <v>2193</v>
-      </c>
-      <c r="D2983" s="16" t="s">
-        <v>2193</v>
-      </c>
-      <c r="E2983" s="16" t="s">
-        <v>2193</v>
-      </c>
-      <c r="F2983" s="16" t="s">
-        <v>2193</v>
-      </c>
-      <c r="G2983" s="16" t="s">
-        <v>2193</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:G2982" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2982">
